--- a/cronograma_Estrategia_ISLP.xlsx
+++ b/cronograma_Estrategia_ISLP.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Laura\Documents\Viviana Escritorio\viviana\COMUNICACIÓN\MENTORIA CBMS\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4507"/>
+  <workbookPr/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620"/>
   </bookViews>
@@ -15,8 +10,8 @@
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913" concurrentCalc="0"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -62,8 +57,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -139,13 +134,13 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -210,7 +205,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -245,7 +240,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -422,28 +417,28 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B2:F7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="44.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="23.5703125" style="1" customWidth="1"/>
     <col min="4" max="5" width="11.42578125" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:6" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:6" ht="18.75">
       <c r="B2" s="9" t="s">
         <v>10</v>
       </c>
@@ -452,22 +447,22 @@
       <c r="E2" s="9"/>
       <c r="F2" s="9"/>
     </row>
-    <row r="4" spans="2:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="B4" s="6" t="s">
+    <row r="4" spans="2:6" ht="45">
+      <c r="B4" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="6"/>
-      <c r="D4" s="7" t="s">
+      <c r="C4" s="8"/>
+      <c r="D4" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="7" t="s">
+      <c r="E4" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="F4" s="8" t="s">
+      <c r="F4" s="7" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="2:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:6" ht="45">
       <c r="B5" s="3" t="s">
         <v>8</v>
       </c>
@@ -482,7 +477,7 @@
         <v>43256</v>
       </c>
     </row>
-    <row r="6" spans="2:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:6" ht="30">
       <c r="B6" s="2" t="s">
         <v>2</v>
       </c>
@@ -491,7 +486,7 @@
       <c r="E6" s="3"/>
       <c r="F6" s="4"/>
     </row>
-    <row r="7" spans="2:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:6" ht="60">
       <c r="B7" s="3" t="s">
         <v>3</v>
       </c>
